--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value137.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value137.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9340489654741583</v>
+        <v>1.348259806632996</v>
       </c>
       <c r="B1">
-        <v>1.796433993882257</v>
+        <v>2.86980938911438</v>
       </c>
       <c r="C1">
-        <v>3.339860954877959</v>
+        <v>3.989838123321533</v>
       </c>
       <c r="D1">
-        <v>2.528021903123048</v>
+        <v>0.9707400798797607</v>
       </c>
       <c r="E1">
-        <v>1.033991228156877</v>
+        <v>0.6288301348686218</v>
       </c>
     </row>
   </sheetData>
